--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Spectacled Petrel_Tristan da Cunha.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Spectacled Petrel_Tristan da Cunha.xlsx
@@ -2953,13 +2953,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A36CEC-A94E-4E94-9798-F2CEB0E13029}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{952703DC-B375-4FA7-837E-2308A78A3F92}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50EF7544-D5FA-4CE0-8C58-3550E093AA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2327C567-251F-4255-A0BD-CA833FA4AD01}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226DC65B-F883-43C0-9B2F-A95F84226854}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38853E51-4C49-400F-95DB-DB5903F916B6}"/>
 </file>